--- a/Code/Results/Cases/Case_3_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9832857194850186</v>
+        <v>1.018970544301157</v>
       </c>
       <c r="D2">
-        <v>1.004474253320019</v>
+        <v>1.024472714553104</v>
       </c>
       <c r="E2">
-        <v>0.9919765108306354</v>
+        <v>1.020160889744303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036574249443541</v>
+        <v>1.02735632998126</v>
       </c>
       <c r="J2">
-        <v>1.00597810939967</v>
+        <v>1.024175959226467</v>
       </c>
       <c r="K2">
-        <v>1.015871604649822</v>
+        <v>1.027301114536878</v>
       </c>
       <c r="L2">
-        <v>1.003548769054305</v>
+        <v>1.023001995971831</v>
       </c>
       <c r="N2">
-        <v>1.005814884010237</v>
+        <v>1.012108358176944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9885426403610336</v>
+        <v>1.020058099956599</v>
       </c>
       <c r="D3">
-        <v>1.008249266147229</v>
+        <v>1.025264769683957</v>
       </c>
       <c r="E3">
-        <v>0.9962080009216537</v>
+        <v>1.021086997280732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037691217738355</v>
+        <v>1.027515291527106</v>
       </c>
       <c r="J3">
-        <v>1.009350593577663</v>
+        <v>1.024899344706809</v>
       </c>
       <c r="K3">
-        <v>1.01877767304996</v>
+        <v>1.027900309103592</v>
       </c>
       <c r="L3">
-        <v>1.006889632124809</v>
+        <v>1.023733954080661</v>
       </c>
       <c r="N3">
-        <v>1.006960851995362</v>
+        <v>1.012351135332999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9918647340588264</v>
+        <v>1.020761729821542</v>
       </c>
       <c r="D4">
-        <v>1.010636644938706</v>
+        <v>1.025776925117156</v>
       </c>
       <c r="E4">
-        <v>0.998888700256067</v>
+        <v>1.021686551765207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038385293584932</v>
+        <v>1.027616625202157</v>
       </c>
       <c r="J4">
-        <v>1.011478855196194</v>
+        <v>1.025366817198803</v>
       </c>
       <c r="K4">
-        <v>1.020608367947837</v>
+        <v>1.028287020838992</v>
       </c>
       <c r="L4">
-        <v>1.00900055621706</v>
+        <v>1.024207260901449</v>
       </c>
       <c r="N4">
-        <v>1.007683598092093</v>
+        <v>1.01250792359418</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9932430903561132</v>
+        <v>1.021057514453097</v>
       </c>
       <c r="D5">
-        <v>1.011627524765222</v>
+        <v>1.025992149204427</v>
       </c>
       <c r="E5">
-        <v>1.00000246676955</v>
+        <v>1.021938676251165</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038670387348415</v>
+        <v>1.027658860517189</v>
       </c>
       <c r="J5">
-        <v>1.012361121699263</v>
+        <v>1.025563197383106</v>
       </c>
       <c r="K5">
-        <v>1.021366479719752</v>
+        <v>1.028449352993378</v>
       </c>
       <c r="L5">
-        <v>1.009876262566638</v>
+        <v>1.024406162546801</v>
       </c>
       <c r="N5">
-        <v>1.007983100911432</v>
+        <v>1.012573764309795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9934734738798763</v>
+        <v>1.021107176756319</v>
       </c>
       <c r="D6">
-        <v>1.011793161826964</v>
+        <v>1.026028281213447</v>
       </c>
       <c r="E6">
-        <v>1.000188713949791</v>
+        <v>1.021981013262987</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038717867949347</v>
+        <v>1.027665930579961</v>
       </c>
       <c r="J6">
-        <v>1.012508540757203</v>
+        <v>1.025596161959458</v>
       </c>
       <c r="K6">
-        <v>1.021493105904955</v>
+        <v>1.028476595107474</v>
       </c>
       <c r="L6">
-        <v>1.010022622334555</v>
+        <v>1.024439554514879</v>
       </c>
       <c r="N6">
-        <v>1.008033138594012</v>
+        <v>1.012584814967867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9918832224459259</v>
+        <v>1.020765682193571</v>
       </c>
       <c r="D7">
-        <v>1.010649934719048</v>
+        <v>1.025779801290781</v>
       </c>
       <c r="E7">
-        <v>0.9989036336413514</v>
+        <v>1.02168992038323</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038389129113731</v>
+        <v>1.02761719098845</v>
       </c>
       <c r="J7">
-        <v>1.011490692428515</v>
+        <v>1.025369441811315</v>
       </c>
       <c r="K7">
-        <v>1.020618542607491</v>
+        <v>1.028289190878378</v>
       </c>
       <c r="L7">
-        <v>1.009012302954072</v>
+        <v>1.024209918935945</v>
       </c>
       <c r="N7">
-        <v>1.007687616917389</v>
+        <v>1.012508803648287</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9850792614562462</v>
+        <v>1.019338108052018</v>
       </c>
       <c r="D8">
-        <v>1.005761777697477</v>
+        <v>1.024740466928942</v>
       </c>
       <c r="E8">
-        <v>0.9934187692210182</v>
+        <v>1.020473809637924</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036957777420167</v>
+        <v>1.027410367403291</v>
       </c>
       <c r="J8">
-        <v>1.007129317258578</v>
+        <v>1.024420556209458</v>
       </c>
       <c r="K8">
-        <v>1.016864263606439</v>
+        <v>1.02750382350003</v>
       </c>
       <c r="L8">
-        <v>1.004688631671263</v>
+        <v>1.023249430597007</v>
       </c>
       <c r="N8">
-        <v>1.006206151975563</v>
+        <v>1.01219046890246</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9724435719789248</v>
+        <v>1.01682181693209</v>
       </c>
       <c r="D9">
-        <v>0.996702217958273</v>
+        <v>1.022906314639513</v>
       </c>
       <c r="E9">
-        <v>0.9832888713051849</v>
+        <v>1.018333183833983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034207732104202</v>
+        <v>1.02703424865245</v>
       </c>
       <c r="J9">
-        <v>0.9990084062366038</v>
+        <v>1.022743859192415</v>
       </c>
       <c r="K9">
-        <v>1.009849026934014</v>
+        <v>1.026112205784765</v>
       </c>
       <c r="L9">
-        <v>0.9966590213768071</v>
+        <v>1.021554490981639</v>
       </c>
       <c r="N9">
-        <v>1.003444416031022</v>
+        <v>1.011627192318421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9635285558932424</v>
+        <v>1.015143767717658</v>
       </c>
       <c r="D10">
-        <v>0.9903288458385924</v>
+        <v>1.02168175192038</v>
       </c>
       <c r="E10">
-        <v>0.976184492778708</v>
+        <v>1.016907670418715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032208806504116</v>
+        <v>1.026775671120321</v>
       </c>
       <c r="J10">
-        <v>0.9932678399880984</v>
+        <v>1.02162294477139</v>
       </c>
       <c r="K10">
-        <v>1.004874939379236</v>
+        <v>1.025179300241799</v>
       </c>
       <c r="L10">
-        <v>0.9909974820251715</v>
+        <v>1.0204228998822</v>
       </c>
       <c r="N10">
-        <v>1.001490359835711</v>
+        <v>1.011250112818804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9595376718043885</v>
+        <v>1.014417021235507</v>
       </c>
       <c r="D11">
-        <v>0.9874816272427932</v>
+        <v>1.021151082468404</v>
       </c>
       <c r="E11">
-        <v>0.9730154230622212</v>
+        <v>1.016290781685331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031300912174756</v>
+        <v>1.026661849248019</v>
       </c>
       <c r="J11">
-        <v>0.99069629119849</v>
+        <v>1.02113683701112</v>
       </c>
       <c r="K11">
-        <v>1.002643547134374</v>
+        <v>1.024774120654594</v>
       </c>
       <c r="L11">
-        <v>0.988464825023653</v>
+        <v>1.019932522126689</v>
       </c>
       <c r="N11">
-        <v>1.000614673622235</v>
+        <v>1.011086463528539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9580343324401003</v>
+        <v>1.014147053306122</v>
       </c>
       <c r="D12">
-        <v>0.9864101167398273</v>
+        <v>1.02095390458632</v>
       </c>
       <c r="E12">
-        <v>0.9718234527566988</v>
+        <v>1.016061697074399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030957029801521</v>
+        <v>1.026619292037362</v>
       </c>
       <c r="J12">
-        <v>0.9897274231898685</v>
+        <v>1.020956162974871</v>
       </c>
       <c r="K12">
-        <v>1.001802392461526</v>
+        <v>1.024623434953166</v>
       </c>
       <c r="L12">
-        <v>0.987511139979823</v>
+        <v>1.019750315151428</v>
       </c>
       <c r="N12">
-        <v>1.000284701959341</v>
+        <v>1.011025621121942</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9583577742737992</v>
+        <v>1.014204963349799</v>
       </c>
       <c r="D13">
-        <v>0.9866406028403329</v>
+        <v>1.02099620278489</v>
       </c>
       <c r="E13">
-        <v>0.9720798209557148</v>
+        <v>1.016110833996509</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031031099559617</v>
+        <v>1.026628433312723</v>
       </c>
       <c r="J13">
-        <v>0.9899358810441834</v>
+        <v>1.020994923237954</v>
       </c>
       <c r="K13">
-        <v>1.001983391563236</v>
+        <v>1.024655765870261</v>
       </c>
       <c r="L13">
-        <v>0.987716307096743</v>
+        <v>1.019789401829701</v>
       </c>
       <c r="N13">
-        <v>1.000355699246796</v>
+        <v>1.011038674548237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9594138406869732</v>
+        <v>1.01439470605465</v>
       </c>
       <c r="D14">
-        <v>0.9873933446945886</v>
+        <v>1.021134784979037</v>
       </c>
       <c r="E14">
-        <v>0.9729172025067051</v>
+        <v>1.016271844350923</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031272624161111</v>
+        <v>1.026658337140184</v>
       </c>
       <c r="J14">
-        <v>0.9906164881078485</v>
+        <v>1.021121904723838</v>
       </c>
       <c r="K14">
-        <v>1.002574272296244</v>
+        <v>1.02476166867954</v>
       </c>
       <c r="L14">
-        <v>0.9883862617169979</v>
+        <v>1.019917462041937</v>
       </c>
       <c r="N14">
-        <v>1.000587495584932</v>
+        <v>1.011081435413876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.960061700789687</v>
+        <v>1.014511609865488</v>
       </c>
       <c r="D15">
-        <v>0.9878552639265596</v>
+        <v>1.021220161622491</v>
       </c>
       <c r="E15">
-        <v>0.973431146995121</v>
+        <v>1.016371055477601</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031420545219641</v>
+        <v>1.026676724949566</v>
       </c>
       <c r="J15">
-        <v>0.991033995248209</v>
+        <v>1.021200127367158</v>
       </c>
       <c r="K15">
-        <v>1.00293668067286</v>
+        <v>1.024826894522633</v>
       </c>
       <c r="L15">
-        <v>0.9887973042717128</v>
+        <v>1.019996356366491</v>
       </c>
       <c r="N15">
-        <v>1.000729681612242</v>
+        <v>1.011107774404551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.963790555375204</v>
+        <v>1.015191996461443</v>
       </c>
       <c r="D16">
-        <v>0.9905158976053285</v>
+        <v>1.021716961763951</v>
       </c>
       <c r="E16">
-        <v>0.9763927834249834</v>
+        <v>1.016948619049281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032268144249562</v>
+        <v>1.026783186010844</v>
       </c>
       <c r="J16">
-        <v>0.993436631229334</v>
+        <v>1.02165519044743</v>
       </c>
       <c r="K16">
-        <v>1.005021339889334</v>
+        <v>1.02520616487144</v>
       </c>
       <c r="L16">
-        <v>0.991163793487186</v>
+        <v>1.020455436389648</v>
       </c>
       <c r="N16">
-        <v>1.001547831554397</v>
+        <v>1.011260965860602</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9660936978731942</v>
+        <v>1.015618746869038</v>
       </c>
       <c r="D17">
-        <v>0.9921608844063164</v>
+        <v>1.022028477632931</v>
       </c>
       <c r="E17">
-        <v>0.978225081749635</v>
+        <v>1.017311007972163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032788287708702</v>
+        <v>1.026849469404599</v>
       </c>
       <c r="J17">
-        <v>0.9949202259337883</v>
+        <v>1.021940440102604</v>
       </c>
       <c r="K17">
-        <v>1.006307772132738</v>
+        <v>1.025443743178296</v>
       </c>
       <c r="L17">
-        <v>0.9926259887920746</v>
+        <v>1.020743300353251</v>
       </c>
       <c r="N17">
-        <v>1.002052942304935</v>
+        <v>1.011356959401016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9674245739580395</v>
+        <v>1.015867649703282</v>
       </c>
       <c r="D18">
-        <v>0.9931119902948354</v>
+        <v>1.022210138471221</v>
       </c>
       <c r="E18">
-        <v>0.9792849378945623</v>
+        <v>1.017522418801804</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033087613489064</v>
+        <v>1.026887952290021</v>
       </c>
       <c r="J18">
-        <v>0.9957773550776837</v>
+        <v>1.022106749583637</v>
       </c>
       <c r="K18">
-        <v>1.007050688510623</v>
+        <v>1.025582200350001</v>
       </c>
       <c r="L18">
-        <v>0.9934710843402331</v>
+        <v>1.020911168777509</v>
       </c>
       <c r="N18">
-        <v>1.002344730826895</v>
+        <v>1.011412914975044</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9678762850322374</v>
+        <v>1.015952516881473</v>
       </c>
       <c r="D19">
-        <v>0.9934348928597967</v>
+        <v>1.022272073141273</v>
       </c>
       <c r="E19">
-        <v>0.9796448389668585</v>
+        <v>1.017594510451663</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033188994680698</v>
+        <v>1.026901043576732</v>
       </c>
       <c r="J19">
-        <v>0.9960682412932658</v>
+        <v>1.022163444641373</v>
       </c>
       <c r="K19">
-        <v>1.007302761378981</v>
+        <v>1.025629390608755</v>
       </c>
       <c r="L19">
-        <v>0.9937579424503018</v>
+        <v>1.020968401169511</v>
       </c>
       <c r="N19">
-        <v>1.002443750028181</v>
+        <v>1.011431988301011</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9658478954262318</v>
+        <v>1.01557296198726</v>
       </c>
       <c r="D20">
-        <v>0.9919852658346799</v>
+        <v>1.021995059176707</v>
       </c>
       <c r="E20">
-        <v>0.9780294194670257</v>
+        <v>1.017272123397749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032732903713383</v>
+        <v>1.02684237634738</v>
       </c>
       <c r="J20">
-        <v>0.9947619066177095</v>
+        <v>1.021909842943339</v>
       </c>
       <c r="K20">
-        <v>1.006170524049607</v>
+        <v>1.025418265502963</v>
       </c>
       <c r="L20">
-        <v>0.9924699188173777</v>
+        <v>1.020712419179728</v>
       </c>
       <c r="N20">
-        <v>1.001999043652244</v>
+        <v>1.011346663908886</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9591034449106944</v>
+        <v>1.014338832169656</v>
       </c>
       <c r="D21">
-        <v>0.9871720720205495</v>
+        <v>1.021093977730443</v>
       </c>
       <c r="E21">
-        <v>0.9726710316088403</v>
+        <v>1.016224429286845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031201687195117</v>
+        <v>1.026649538900535</v>
       </c>
       <c r="J21">
-        <v>0.9904164505624992</v>
+        <v>1.021084514933153</v>
       </c>
       <c r="K21">
-        <v>1.002400618228048</v>
+        <v>1.024730488018994</v>
       </c>
       <c r="L21">
-        <v>0.9881893404137577</v>
+        <v>1.019879753126</v>
       </c>
       <c r="N21">
-        <v>1.000519369368283</v>
+        <v>1.011068844944192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9547410031206744</v>
+        <v>1.013562758469114</v>
       </c>
       <c r="D22">
-        <v>0.9840648145417259</v>
+        <v>1.020527064142488</v>
       </c>
       <c r="E22">
-        <v>0.9692156620263234</v>
+        <v>1.015566022568765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030200314591478</v>
+        <v>1.026526681952746</v>
       </c>
       <c r="J22">
-        <v>0.9876047012874333</v>
+        <v>1.02056495056518</v>
       </c>
       <c r="K22">
-        <v>0.9999587010048183</v>
+        <v>1.024296990730721</v>
       </c>
       <c r="L22">
-        <v>0.9854226651848207</v>
+        <v>1.019355882457509</v>
       </c>
       <c r="N22">
-        <v>0.9995616843650229</v>
+        <v>1.010893846454701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9570656474876976</v>
+        <v>1.013974182182249</v>
       </c>
       <c r="D23">
-        <v>0.9857199875085657</v>
+        <v>1.020827630524416</v>
       </c>
       <c r="E23">
-        <v>0.9710559203152278</v>
+        <v>1.015915026066182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030734926174052</v>
+        <v>1.026591963528981</v>
       </c>
       <c r="J23">
-        <v>0.9891030864328254</v>
+        <v>1.020840442923761</v>
       </c>
       <c r="K23">
-        <v>1.001260232844867</v>
+        <v>1.024526896684915</v>
       </c>
       <c r="L23">
-        <v>0.9868967371990888</v>
+        <v>1.019633628500526</v>
       </c>
       <c r="N23">
-        <v>1.000072057330491</v>
+        <v>1.010986647044536</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9659590015274279</v>
+        <v>1.015593650245808</v>
       </c>
       <c r="D24">
-        <v>0.9920646461692282</v>
+        <v>1.022010159665498</v>
       </c>
       <c r="E24">
-        <v>0.9781178582454352</v>
+        <v>1.017289693553336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032757941898022</v>
+        <v>1.026845581947964</v>
       </c>
       <c r="J24">
-        <v>0.9948334696667712</v>
+        <v>1.021923668704317</v>
       </c>
       <c r="K24">
-        <v>1.006232563487006</v>
+        <v>1.025429778132994</v>
       </c>
       <c r="L24">
-        <v>0.9925404641030928</v>
+        <v>1.020726373169303</v>
       </c>
       <c r="N24">
-        <v>1.002023406872201</v>
+        <v>1.011351316109295</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9757923469907498</v>
+        <v>1.017472427855695</v>
       </c>
       <c r="D25">
-        <v>0.9991005070974615</v>
+        <v>1.023380805378414</v>
       </c>
       <c r="E25">
-        <v>0.9859665717581481</v>
+        <v>1.018886311036184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034946898344804</v>
+        <v>1.027132865774103</v>
       </c>
       <c r="J25">
-        <v>1.001162791520743</v>
+        <v>1.023177875043669</v>
       </c>
       <c r="K25">
-        <v>1.011712802601253</v>
+        <v>1.026472883082035</v>
       </c>
       <c r="L25">
-        <v>0.998786716434472</v>
+        <v>1.021992961519722</v>
       </c>
       <c r="N25">
-        <v>1.004177412774599</v>
+        <v>1.011773088438938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_93/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018970544301157</v>
+        <v>0.9832857194850166</v>
       </c>
       <c r="D2">
-        <v>1.024472714553104</v>
+        <v>1.004474253320018</v>
       </c>
       <c r="E2">
-        <v>1.020160889744303</v>
+        <v>0.9919765108306337</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02735632998126</v>
+        <v>1.036574249443541</v>
       </c>
       <c r="J2">
-        <v>1.024175959226467</v>
+        <v>1.005978109399668</v>
       </c>
       <c r="K2">
-        <v>1.027301114536878</v>
+        <v>1.015871604649821</v>
       </c>
       <c r="L2">
-        <v>1.023001995971831</v>
+        <v>1.003548769054303</v>
       </c>
       <c r="N2">
-        <v>1.012108358176944</v>
+        <v>1.005814884010236</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020058099956599</v>
+        <v>0.9885426403610322</v>
       </c>
       <c r="D3">
-        <v>1.025264769683957</v>
+        <v>1.008249266147227</v>
       </c>
       <c r="E3">
-        <v>1.021086997280732</v>
+        <v>0.9962080009216525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027515291527106</v>
+        <v>1.037691217738354</v>
       </c>
       <c r="J3">
-        <v>1.024899344706809</v>
+        <v>1.009350593577662</v>
       </c>
       <c r="K3">
-        <v>1.027900309103592</v>
+        <v>1.018777673049959</v>
       </c>
       <c r="L3">
-        <v>1.023733954080661</v>
+        <v>1.006889632124807</v>
       </c>
       <c r="N3">
-        <v>1.012351135332999</v>
+        <v>1.006960851995361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020761729821542</v>
+        <v>0.9918647340588264</v>
       </c>
       <c r="D4">
-        <v>1.025776925117156</v>
+        <v>1.010636644938706</v>
       </c>
       <c r="E4">
-        <v>1.021686551765207</v>
+        <v>0.9988887002560669</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027616625202157</v>
+        <v>1.038385293584932</v>
       </c>
       <c r="J4">
-        <v>1.025366817198803</v>
+        <v>1.011478855196194</v>
       </c>
       <c r="K4">
-        <v>1.028287020838992</v>
+        <v>1.020608367947837</v>
       </c>
       <c r="L4">
-        <v>1.024207260901449</v>
+        <v>1.00900055621706</v>
       </c>
       <c r="N4">
-        <v>1.01250792359418</v>
+        <v>1.007683598092093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021057514453097</v>
+        <v>0.9932430903561135</v>
       </c>
       <c r="D5">
-        <v>1.025992149204427</v>
+        <v>1.011627524765222</v>
       </c>
       <c r="E5">
-        <v>1.021938676251165</v>
+        <v>1.00000246676955</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027658860517189</v>
+        <v>1.038670387348415</v>
       </c>
       <c r="J5">
-        <v>1.025563197383106</v>
+        <v>1.012361121699263</v>
       </c>
       <c r="K5">
-        <v>1.028449352993378</v>
+        <v>1.021366479719752</v>
       </c>
       <c r="L5">
-        <v>1.024406162546801</v>
+        <v>1.009876262566639</v>
       </c>
       <c r="N5">
-        <v>1.012573764309795</v>
+        <v>1.007983100911433</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021107176756319</v>
+        <v>0.9934734738798773</v>
       </c>
       <c r="D6">
-        <v>1.026028281213447</v>
+        <v>1.011793161826965</v>
       </c>
       <c r="E6">
-        <v>1.021981013262987</v>
+        <v>1.000188713949791</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027665930579961</v>
+        <v>1.038717867949347</v>
       </c>
       <c r="J6">
-        <v>1.025596161959458</v>
+        <v>1.012508540757204</v>
       </c>
       <c r="K6">
-        <v>1.028476595107474</v>
+        <v>1.021493105904956</v>
       </c>
       <c r="L6">
-        <v>1.024439554514879</v>
+        <v>1.010022622334555</v>
       </c>
       <c r="N6">
-        <v>1.012584814967867</v>
+        <v>1.008033138594012</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020765682193571</v>
+        <v>0.9918832224459253</v>
       </c>
       <c r="D7">
-        <v>1.025779801290781</v>
+        <v>1.010649934719048</v>
       </c>
       <c r="E7">
-        <v>1.02168992038323</v>
+        <v>0.9989036336413505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02761719098845</v>
+        <v>1.038389129113731</v>
       </c>
       <c r="J7">
-        <v>1.025369441811315</v>
+        <v>1.011490692428514</v>
       </c>
       <c r="K7">
-        <v>1.028289190878378</v>
+        <v>1.020618542607491</v>
       </c>
       <c r="L7">
-        <v>1.024209918935945</v>
+        <v>1.009012302954071</v>
       </c>
       <c r="N7">
-        <v>1.012508803648287</v>
+        <v>1.007687616917389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019338108052018</v>
+        <v>0.985079261456246</v>
       </c>
       <c r="D8">
-        <v>1.024740466928942</v>
+        <v>1.005761777697477</v>
       </c>
       <c r="E8">
-        <v>1.020473809637924</v>
+        <v>0.9934187692210175</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027410367403291</v>
+        <v>1.036957777420167</v>
       </c>
       <c r="J8">
-        <v>1.024420556209458</v>
+        <v>1.007129317258578</v>
       </c>
       <c r="K8">
-        <v>1.02750382350003</v>
+        <v>1.016864263606438</v>
       </c>
       <c r="L8">
-        <v>1.023249430597007</v>
+        <v>1.004688631671262</v>
       </c>
       <c r="N8">
-        <v>1.01219046890246</v>
+        <v>1.006206151975563</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01682181693209</v>
+        <v>0.9724435719789253</v>
       </c>
       <c r="D9">
-        <v>1.022906314639513</v>
+        <v>0.9967022179582729</v>
       </c>
       <c r="E9">
-        <v>1.018333183833983</v>
+        <v>0.9832888713051852</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02703424865245</v>
+        <v>1.034207732104202</v>
       </c>
       <c r="J9">
-        <v>1.022743859192415</v>
+        <v>0.999008406236604</v>
       </c>
       <c r="K9">
-        <v>1.026112205784765</v>
+        <v>1.009849026934014</v>
       </c>
       <c r="L9">
-        <v>1.021554490981639</v>
+        <v>0.9966590213768073</v>
       </c>
       <c r="N9">
-        <v>1.011627192318421</v>
+        <v>1.003444416031021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015143767717658</v>
+        <v>0.9635285558932419</v>
       </c>
       <c r="D10">
-        <v>1.02168175192038</v>
+        <v>0.9903288458385922</v>
       </c>
       <c r="E10">
-        <v>1.016907670418715</v>
+        <v>0.9761844927787074</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026775671120321</v>
+        <v>1.032208806504116</v>
       </c>
       <c r="J10">
-        <v>1.02162294477139</v>
+        <v>0.993267839988098</v>
       </c>
       <c r="K10">
-        <v>1.025179300241799</v>
+        <v>1.004874939379236</v>
       </c>
       <c r="L10">
-        <v>1.0204228998822</v>
+        <v>0.9909974820251709</v>
       </c>
       <c r="N10">
-        <v>1.011250112818804</v>
+        <v>1.001490359835711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014417021235507</v>
+        <v>0.9595376718043865</v>
       </c>
       <c r="D11">
-        <v>1.021151082468404</v>
+        <v>0.9874816272427915</v>
       </c>
       <c r="E11">
-        <v>1.016290781685331</v>
+        <v>0.9730154230622193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026661849248019</v>
+        <v>1.031300912174755</v>
       </c>
       <c r="J11">
-        <v>1.02113683701112</v>
+        <v>0.9906962911984883</v>
       </c>
       <c r="K11">
-        <v>1.024774120654594</v>
+        <v>1.002643547134373</v>
       </c>
       <c r="L11">
-        <v>1.019932522126689</v>
+        <v>0.988464825023651</v>
       </c>
       <c r="N11">
-        <v>1.011086463528539</v>
+        <v>1.000614673622235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014147053306122</v>
+        <v>0.9580343324401005</v>
       </c>
       <c r="D12">
-        <v>1.02095390458632</v>
+        <v>0.9864101167398271</v>
       </c>
       <c r="E12">
-        <v>1.016061697074399</v>
+        <v>0.9718234527566988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026619292037362</v>
+        <v>1.030957029801521</v>
       </c>
       <c r="J12">
-        <v>1.020956162974871</v>
+        <v>0.9897274231898684</v>
       </c>
       <c r="K12">
-        <v>1.024623434953166</v>
+        <v>1.001802392461526</v>
       </c>
       <c r="L12">
-        <v>1.019750315151428</v>
+        <v>0.9875111399798229</v>
       </c>
       <c r="N12">
-        <v>1.011025621121942</v>
+        <v>1.000284701959341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014204963349799</v>
+        <v>0.9583577742737991</v>
       </c>
       <c r="D13">
-        <v>1.02099620278489</v>
+        <v>0.9866406028403332</v>
       </c>
       <c r="E13">
-        <v>1.016110833996509</v>
+        <v>0.9720798209557144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026628433312723</v>
+        <v>1.031031099559617</v>
       </c>
       <c r="J13">
-        <v>1.020994923237954</v>
+        <v>0.9899358810441835</v>
       </c>
       <c r="K13">
-        <v>1.024655765870261</v>
+        <v>1.001983391563236</v>
       </c>
       <c r="L13">
-        <v>1.019789401829701</v>
+        <v>0.9877163070967427</v>
       </c>
       <c r="N13">
-        <v>1.011038674548237</v>
+        <v>1.000355699246796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01439470605465</v>
+        <v>0.9594138406869727</v>
       </c>
       <c r="D14">
-        <v>1.021134784979037</v>
+        <v>0.9873933446945879</v>
       </c>
       <c r="E14">
-        <v>1.016271844350923</v>
+        <v>0.9729172025067045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026658337140184</v>
+        <v>1.031272624161111</v>
       </c>
       <c r="J14">
-        <v>1.021121904723838</v>
+        <v>0.9906164881078479</v>
       </c>
       <c r="K14">
-        <v>1.02476166867954</v>
+        <v>1.002574272296244</v>
       </c>
       <c r="L14">
-        <v>1.019917462041937</v>
+        <v>0.9883862617169972</v>
       </c>
       <c r="N14">
-        <v>1.011081435413876</v>
+        <v>1.000587495584932</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014511609865488</v>
+        <v>0.9600617007896878</v>
       </c>
       <c r="D15">
-        <v>1.021220161622491</v>
+        <v>0.9878552639265606</v>
       </c>
       <c r="E15">
-        <v>1.016371055477601</v>
+        <v>0.9734311469951221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026676724949566</v>
+        <v>1.031420545219642</v>
       </c>
       <c r="J15">
-        <v>1.021200127367158</v>
+        <v>0.9910339952482098</v>
       </c>
       <c r="K15">
-        <v>1.024826894522633</v>
+        <v>1.002936680672861</v>
       </c>
       <c r="L15">
-        <v>1.019996356366491</v>
+        <v>0.9887973042717135</v>
       </c>
       <c r="N15">
-        <v>1.011107774404551</v>
+        <v>1.000729681612243</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015191996461443</v>
+        <v>0.9637905553752039</v>
       </c>
       <c r="D16">
-        <v>1.021716961763951</v>
+        <v>0.9905158976053287</v>
       </c>
       <c r="E16">
-        <v>1.016948619049281</v>
+        <v>0.9763927834249833</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026783186010844</v>
+        <v>1.032268144249562</v>
       </c>
       <c r="J16">
-        <v>1.02165519044743</v>
+        <v>0.9934366312293339</v>
       </c>
       <c r="K16">
-        <v>1.02520616487144</v>
+        <v>1.005021339889334</v>
       </c>
       <c r="L16">
-        <v>1.020455436389648</v>
+        <v>0.9911637934871858</v>
       </c>
       <c r="N16">
-        <v>1.011260965860602</v>
+        <v>1.001547831554397</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015618746869038</v>
+        <v>0.9660936978731937</v>
       </c>
       <c r="D17">
-        <v>1.022028477632931</v>
+        <v>0.9921608844063162</v>
       </c>
       <c r="E17">
-        <v>1.017311007972163</v>
+        <v>0.9782250817496343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026849469404599</v>
+        <v>1.032788287708702</v>
       </c>
       <c r="J17">
-        <v>1.021940440102604</v>
+        <v>0.9949202259337879</v>
       </c>
       <c r="K17">
-        <v>1.025443743178296</v>
+        <v>1.006307772132737</v>
       </c>
       <c r="L17">
-        <v>1.020743300353251</v>
+        <v>0.9926259887920742</v>
       </c>
       <c r="N17">
-        <v>1.011356959401016</v>
+        <v>1.002052942304935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015867649703282</v>
+        <v>0.9674245739580386</v>
       </c>
       <c r="D18">
-        <v>1.022210138471221</v>
+        <v>0.9931119902948345</v>
       </c>
       <c r="E18">
-        <v>1.017522418801804</v>
+        <v>0.9792849378945616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026887952290021</v>
+        <v>1.033087613489064</v>
       </c>
       <c r="J18">
-        <v>1.022106749583637</v>
+        <v>0.9957773550776831</v>
       </c>
       <c r="K18">
-        <v>1.025582200350001</v>
+        <v>1.007050688510622</v>
       </c>
       <c r="L18">
-        <v>1.020911168777509</v>
+        <v>0.9934710843402323</v>
       </c>
       <c r="N18">
-        <v>1.011412914975044</v>
+        <v>1.002344730826895</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015952516881473</v>
+        <v>0.9678762850322379</v>
       </c>
       <c r="D19">
-        <v>1.022272073141273</v>
+        <v>0.9934348928597971</v>
       </c>
       <c r="E19">
-        <v>1.017594510451663</v>
+        <v>0.9796448389668589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026901043576732</v>
+        <v>1.033188994680698</v>
       </c>
       <c r="J19">
-        <v>1.022163444641373</v>
+        <v>0.9960682412932662</v>
       </c>
       <c r="K19">
-        <v>1.025629390608755</v>
+        <v>1.007302761378982</v>
       </c>
       <c r="L19">
-        <v>1.020968401169511</v>
+        <v>0.9937579424503022</v>
       </c>
       <c r="N19">
-        <v>1.011431988301011</v>
+        <v>1.002443750028181</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01557296198726</v>
+        <v>0.965847895426232</v>
       </c>
       <c r="D20">
-        <v>1.021995059176707</v>
+        <v>0.9919852658346802</v>
       </c>
       <c r="E20">
-        <v>1.017272123397749</v>
+        <v>0.9780294194670259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02684237634738</v>
+        <v>1.032732903713384</v>
       </c>
       <c r="J20">
-        <v>1.021909842943339</v>
+        <v>0.9947619066177097</v>
       </c>
       <c r="K20">
-        <v>1.025418265502963</v>
+        <v>1.006170524049607</v>
       </c>
       <c r="L20">
-        <v>1.020712419179728</v>
+        <v>0.9924699188173779</v>
       </c>
       <c r="N20">
-        <v>1.011346663908886</v>
+        <v>1.001999043652244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014338832169656</v>
+        <v>0.9591034449106947</v>
       </c>
       <c r="D21">
-        <v>1.021093977730443</v>
+        <v>0.9871720720205498</v>
       </c>
       <c r="E21">
-        <v>1.016224429286845</v>
+        <v>0.9726710316088401</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026649538900535</v>
+        <v>1.031201687195117</v>
       </c>
       <c r="J21">
-        <v>1.021084514933153</v>
+        <v>0.9904164505624995</v>
       </c>
       <c r="K21">
-        <v>1.024730488018994</v>
+        <v>1.002400618228048</v>
       </c>
       <c r="L21">
-        <v>1.019879753126</v>
+        <v>0.9881893404137578</v>
       </c>
       <c r="N21">
-        <v>1.011068844944192</v>
+        <v>1.000519369368283</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013562758469114</v>
+        <v>0.9547410031206737</v>
       </c>
       <c r="D22">
-        <v>1.020527064142488</v>
+        <v>0.9840648145417246</v>
       </c>
       <c r="E22">
-        <v>1.015566022568765</v>
+        <v>0.9692156620263223</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026526681952746</v>
+        <v>1.030200314591478</v>
       </c>
       <c r="J22">
-        <v>1.02056495056518</v>
+        <v>0.9876047012874324</v>
       </c>
       <c r="K22">
-        <v>1.024296990730721</v>
+        <v>0.9999587010048172</v>
       </c>
       <c r="L22">
-        <v>1.019355882457509</v>
+        <v>0.9854226651848198</v>
       </c>
       <c r="N22">
-        <v>1.010893846454701</v>
+        <v>0.9995616843650226</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013974182182249</v>
+        <v>0.9570656474876977</v>
       </c>
       <c r="D23">
-        <v>1.020827630524416</v>
+        <v>0.9857199875085655</v>
       </c>
       <c r="E23">
-        <v>1.015915026066182</v>
+        <v>0.9710559203152277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026591963528981</v>
+        <v>1.030734926174052</v>
       </c>
       <c r="J23">
-        <v>1.020840442923761</v>
+        <v>0.9891030864328254</v>
       </c>
       <c r="K23">
-        <v>1.024526896684915</v>
+        <v>1.001260232844867</v>
       </c>
       <c r="L23">
-        <v>1.019633628500526</v>
+        <v>0.9868967371990887</v>
       </c>
       <c r="N23">
-        <v>1.010986647044536</v>
+        <v>1.000072057330491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015593650245808</v>
+        <v>0.9659590015274284</v>
       </c>
       <c r="D24">
-        <v>1.022010159665498</v>
+        <v>0.9920646461692287</v>
       </c>
       <c r="E24">
-        <v>1.017289693553336</v>
+        <v>0.9781178582454357</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026845581947964</v>
+        <v>1.032757941898022</v>
       </c>
       <c r="J24">
-        <v>1.021923668704317</v>
+        <v>0.9948334696667717</v>
       </c>
       <c r="K24">
-        <v>1.025429778132994</v>
+        <v>1.006232563487006</v>
       </c>
       <c r="L24">
-        <v>1.020726373169303</v>
+        <v>0.9925404641030932</v>
       </c>
       <c r="N24">
-        <v>1.011351316109295</v>
+        <v>1.002023406872201</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017472427855695</v>
+        <v>0.9757923469907499</v>
       </c>
       <c r="D25">
-        <v>1.023380805378414</v>
+        <v>0.9991005070974618</v>
       </c>
       <c r="E25">
-        <v>1.018886311036184</v>
+        <v>0.9859665717581478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027132865774103</v>
+        <v>1.034946898344804</v>
       </c>
       <c r="J25">
-        <v>1.023177875043669</v>
+        <v>1.001162791520743</v>
       </c>
       <c r="K25">
-        <v>1.026472883082035</v>
+        <v>1.011712802601253</v>
       </c>
       <c r="L25">
-        <v>1.021992961519722</v>
+        <v>0.9987867164344719</v>
       </c>
       <c r="N25">
-        <v>1.011773088438938</v>
+        <v>1.004177412774599</v>
       </c>
     </row>
   </sheetData>
